--- a/VT_ModelPL_DEMAND.xlsx
+++ b/VT_ModelPL_DEMAND.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Pracedyplomowe796/Shared Documents/General/2025_2026/Alicja Ossera/H2-V5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{BCC0D78F-FBF9-42FE-985B-A93E5EBDF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2363A64B-32E2-43FF-B4A1-94B52E84D21C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A22F5-2896-48D4-8BBC-D3746CE84327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -4123,7 +4123,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="116" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4200,33 +4200,16 @@
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1308" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="115" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="115" fillId="44" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="115" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="115" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="115" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4237,11 +4220,11 @@
     <xf numFmtId="184" fontId="44" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="44" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="44" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4251,12 +4234,10 @@
     <xf numFmtId="0" fontId="6" fillId="44" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="185" fontId="0" fillId="44" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="6" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="185" fontId="0" fillId="43" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4272,15 +4253,15 @@
     <xf numFmtId="0" fontId="44" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4288,7 +4269,22 @@
     <xf numFmtId="1" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="186" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1309">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6127,335 +6123,335 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:9" ht="13.9" customHeight="1">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="2:9" ht="13" thickBot="1">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -6464,13 +6460,13 @@
       <c r="D26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6626,356 +6622,356 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="58"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="58"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="63"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="58"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="63"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="58"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="58"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="63"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="2:10" ht="13" thickBot="1">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="82"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="17" t="s">
@@ -7190,980 +7186,976 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="76" t="str">
         <f>SEC_Processes!D8</f>
         <v>DMD_IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="84" t="str">
+      <c r="C8" s="77" t="str">
         <f>SEC_Processes!E8</f>
         <v>H2 demand for fertilizers production</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77">
         <v>1</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="77">
         <v>1</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="77">
         <v>1</v>
       </c>
-      <c r="I8" s="85"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87" t="str">
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="88">
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87" t="str">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="88">
+      <c r="E10" s="80"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87" t="str">
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="88"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B12" s="90" t="str">
+      <c r="B12" s="83" t="str">
         <f>SEC_Processes!D9</f>
         <v>DMD_IND_REF_H2G</v>
       </c>
-      <c r="C12" s="91" t="str">
+      <c r="C12" s="39" t="str">
         <f>SEC_Processes!E9</f>
         <v>H2 demand for refineries</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="91">
+      <c r="D12" s="34"/>
+      <c r="F12" s="39">
         <v>1</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="34">
         <v>1</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="57" t="str">
+      <c r="B13" s="83"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="93">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="57" t="str">
+      <c r="B14" s="83"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="93">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91" t="str">
+      <c r="B15" s="83"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="93"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B16" s="94" t="str">
+      <c r="B16" s="85" t="str">
         <f>SEC_Processes!D11</f>
         <v>DMD_IND_FUEL_H2G</v>
       </c>
-      <c r="C16" s="62" t="str">
+      <c r="C16" s="55" t="str">
         <f>SEC_Processes!E11</f>
         <v>H2 demand for conventional fuels production</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="87">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="80">
         <v>1</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="55">
         <v>1</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="55">
         <v>1</v>
       </c>
-      <c r="I16" s="88"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62" t="str">
+      <c r="B17" s="85"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="88">
+      <c r="E17" s="55"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62" t="str">
+      <c r="B18" s="85"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="88">
+      <c r="E18" s="55"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62" t="str">
+      <c r="B19" s="85"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_FUEL_H2G</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="90" t="str">
+      <c r="B20" s="83" t="str">
         <f>SEC_Processes!D10</f>
         <v>DMD_IND_STEEL_H2G</v>
       </c>
-      <c r="C20" s="91" t="str">
+      <c r="C20" s="39" t="str">
         <f>SEC_Processes!E10</f>
         <v>H2 demand for steel production</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="91">
+      <c r="D20" s="34"/>
+      <c r="F20" s="39">
         <v>1</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="34">
         <f>G8</f>
         <v>1</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="34">
         <v>1</v>
       </c>
-      <c r="I20" s="93"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="57" t="str">
+      <c r="B21" s="83"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="93">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="57" t="str">
+      <c r="B22" s="83"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="93">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91" t="str">
+      <c r="B23" s="83"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="93"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="86" t="str">
+      <c r="B24" s="79" t="str">
         <f>SEC_Processes!D12</f>
         <v>DMD_IND_OTH</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62">
+      <c r="C24" s="80"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55">
         <v>1</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="55">
         <v>1</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="55">
         <v>1</v>
       </c>
-      <c r="I24" s="88"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="62" t="str">
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="88">
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="62" t="str">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="88">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="str">
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="str">
         <f>SEC_Comm!C14</f>
         <v>IND_OTH_H2G</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="88"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="90" t="str">
+      <c r="B28" s="83" t="str">
         <f>SEC_Processes!D13</f>
         <v>DMD_TRA_AVI_H2G</v>
       </c>
-      <c r="C28" s="91" t="str">
+      <c r="C28" s="39" t="str">
         <f>SEC_Processes!E13</f>
         <v>SF demand for aviation</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="91">
+      <c r="D28" s="34"/>
+      <c r="F28" s="39">
         <v>1</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="34">
         <f>G12</f>
         <v>1</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="34">
         <v>1</v>
       </c>
-      <c r="I28" s="93"/>
+      <c r="I28" s="84"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="57" t="str">
+      <c r="B29" s="83"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="93">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="57" t="str">
+      <c r="B30" s="83"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="93">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91" t="str">
+      <c r="B31" s="83"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39" t="str">
         <f>SEC_Comm!C15</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="93"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="84"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="86" t="str">
+      <c r="B32" s="79" t="str">
         <f>SEC_Processes!D14</f>
         <v>DMD_TRA_CARS_H2G</v>
       </c>
-      <c r="C32" s="87" t="str">
+      <c r="C32" s="80" t="str">
         <f>SEC_Processes!E14</f>
         <v>H2 demand for cars</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55">
         <v>1</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="55">
         <f>G20</f>
         <v>1</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="55">
         <v>1</v>
       </c>
-      <c r="I32" s="88"/>
+      <c r="I32" s="81"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="62" t="str">
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="88">
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="62" t="str">
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="88">
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62" t="str">
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_CAR_H2G</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="88"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="90" t="str">
+      <c r="B36" s="83" t="str">
         <f>SEC_Processes!D15</f>
         <v>DMD_TRA_BUS_H2G</v>
       </c>
-      <c r="C36" s="91" t="str">
+      <c r="C36" s="39" t="str">
         <f>SEC_Processes!E15</f>
         <v>H2 demand for city transport</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="91">
+      <c r="D36" s="34"/>
+      <c r="F36" s="39">
         <v>1</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="34">
         <f>G28</f>
         <v>1</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="34">
         <v>1</v>
       </c>
-      <c r="I36" s="93"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="57" t="str">
+      <c r="B37" s="83"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="93">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="57" t="str">
+      <c r="B38" s="83"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="93">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91" t="str">
+      <c r="B39" s="83"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="str">
         <f>SEC_Comm!C18</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="93"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="86" t="str">
+      <c r="B40" s="79" t="str">
         <f>SEC_Processes!D16</f>
         <v>DMD_TRA_RAIL_H2G</v>
       </c>
-      <c r="C40" s="87" t="str">
+      <c r="C40" s="80" t="str">
         <f>SEC_Processes!E16</f>
         <v>H2 demand for rail</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62">
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55">
         <v>1</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="55">
         <f>G32</f>
         <v>1</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="55">
         <v>1</v>
       </c>
-      <c r="I40" s="88"/>
+      <c r="I40" s="81"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="86"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="62" t="str">
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="88">
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="86"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="62" t="str">
+      <c r="B42" s="79"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="88">
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="86"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62" t="str">
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="88"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="90" t="str">
+      <c r="B44" s="83" t="str">
         <f>SEC_Processes!D17</f>
         <v>DMD_TRA_FRK_H2G</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57">
+      <c r="C44" s="39"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34">
         <v>1</v>
       </c>
-      <c r="G44" s="57">
+      <c r="G44" s="34">
         <v>1</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="34">
         <v>1</v>
       </c>
-      <c r="I44" s="93"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="57" t="str">
+      <c r="B45" s="83"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="93">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="90"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="57" t="str">
+      <c r="B46" s="83"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="93">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="90"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="str">
+      <c r="B47" s="83"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="str">
         <f>SEC_Comm!C19</f>
         <v>TRA_FRK_H2G</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="93"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="84"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="86" t="str">
+      <c r="B48" s="79" t="str">
         <f>SEC_Processes!D20</f>
         <v>DMD_IND_HT_H2G</v>
       </c>
-      <c r="C48" s="87" t="str">
+      <c r="C48" s="80" t="str">
         <f>SEC_Processes!E20</f>
         <v>H2 demand for industrial heat</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62">
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55">
         <v>1</v>
       </c>
-      <c r="G48" s="62">
+      <c r="G48" s="55">
         <f>G40</f>
         <v>1</v>
       </c>
-      <c r="H48" s="62">
+      <c r="H48" s="55">
         <v>1</v>
       </c>
-      <c r="I48" s="88"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="86"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="62" t="str">
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="88">
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="62" t="str">
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="88">
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62" t="str">
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55" t="str">
         <f>SEC_Comm!C22</f>
         <v>IND_HT_H2G</v>
       </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="88"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="90" t="str">
+      <c r="B52" s="83" t="str">
         <f>SEC_Processes!D21</f>
         <v>DMD_ELE_PP_H2G</v>
       </c>
-      <c r="C52" s="91" t="str">
+      <c r="C52" s="39" t="str">
         <f>SEC_Processes!E21</f>
         <v>H2 demand for power generation</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="91">
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="39">
         <v>1</v>
       </c>
-      <c r="G52" s="57">
+      <c r="G52" s="34">
         <v>1</v>
       </c>
-      <c r="H52" s="57">
+      <c r="H52" s="34">
         <v>1</v>
       </c>
-      <c r="I52" s="93"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="57" t="str">
+      <c r="B53" s="83"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="93">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="84">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="90"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="57" t="str">
+      <c r="B54" s="83"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="93">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91" t="str">
+      <c r="B55" s="83"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="str">
         <f>SEC_Comm!C23</f>
         <v>PP_H2G</v>
       </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="93"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="86" t="str">
+      <c r="B56" s="79" t="str">
         <f>SEC_Processes!D22</f>
         <v>DMD_OTHER_ELC</v>
       </c>
-      <c r="C56" s="87" t="str">
+      <c r="C56" s="80" t="str">
         <f>SEC_Processes!E22</f>
         <v>Whole demand of electricity system in Poland</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62">
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55">
         <v>1</v>
       </c>
-      <c r="G56" s="62">
+      <c r="G56" s="55">
         <v>1</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="55">
         <v>1</v>
       </c>
-      <c r="I56" s="88"/>
+      <c r="I56" s="81"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="62" t="str">
+      <c r="B57" s="79"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="55" t="str">
         <f>SEC_Comm!C24</f>
         <v>ELC_GRID</v>
       </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="88">
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="81">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="86"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="62" t="str">
+      <c r="B58" s="79"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="55" t="str">
         <f>SEC_Comm!C25</f>
         <v>ELC_GRID_RES</v>
       </c>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="88">
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62" t="str">
+      <c r="B59" s="79"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55" t="str">
         <f>SEC_Comm!C26</f>
         <v>DMD_ELC_TOT</v>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="88"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="81"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="90" t="str">
+      <c r="B60" s="83" t="str">
         <f>SEC_Processes!D18</f>
         <v>DMD_TRA_SHIP_INL_H2G</v>
       </c>
-      <c r="C60" s="91" t="str">
+      <c r="C60" s="39" t="str">
         <f>SEC_Processes!E18</f>
         <v>H2 demand for ships on inland and coastal waters</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="91">
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="39">
         <v>1</v>
       </c>
-      <c r="G60" s="57">
+      <c r="G60" s="34">
         <f t="shared" ref="G60" si="0">G52</f>
         <v>1</v>
       </c>
-      <c r="H60" s="57">
+      <c r="H60" s="34">
         <v>1</v>
       </c>
-      <c r="I60" s="93"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="57" t="str">
+      <c r="B61" s="83"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="34" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="93">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="84">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="57" t="str">
+      <c r="B62" s="83"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="34" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="93">
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="84">
         <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="90"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91" t="str">
+      <c r="B63" s="83"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39" t="str">
         <f>SEC_Comm!C20</f>
         <v>TRA_SHIP_INL_H2G</v>
       </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="93"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="84"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="86" t="str">
+      <c r="B64" s="79" t="str">
         <f>SEC_Processes!D19</f>
         <v>DMD_TRA_SHIP_SEA_H2G</v>
       </c>
-      <c r="C64" s="87" t="str">
+      <c r="C64" s="80" t="str">
         <f>SEC_Processes!E19</f>
         <v>H2 demand for ships on seawaters</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62">
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55">
         <v>1</v>
       </c>
-      <c r="G64" s="62">
+      <c r="G64" s="55">
         <v>1</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H64" s="55">
         <v>1</v>
       </c>
-      <c r="I64" s="88"/>
+      <c r="I64" s="81"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="86"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="62" t="str">
+      <c r="B65" s="79"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="88">
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="81">
         <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="86"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="62" t="str">
+      <c r="B66" s="79"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="88">
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="81">
         <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="13" thickBot="1">
-      <c r="B67" s="95"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66" t="str">
+      <c r="B67" s="86"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59" t="str">
         <f>SEC_Comm!C21</f>
         <v>TRA_SHIP_SEA_H2G</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="97"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="88"/>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="40"/>
@@ -8196,7 +8188,7 @@
   <dimension ref="B2:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8214,7 +8206,9 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="13">
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="13">
       <c r="B5" s="16" t="s">
@@ -8246,296 +8240,296 @@
       <c r="B6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="2:9" ht="13" thickBot="1">
       <c r="B7" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="36" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="90">
         <v>0</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="90">
         <v>0</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="91">
         <v>0.136103</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="103" t="str">
+      <c r="B9" s="94" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="95">
         <v>0</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="95">
         <v>0</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="96">
         <v>1.7971000000000001E-2</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="58"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="107" t="str">
+      <c r="B10" s="98" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="99">
         <v>0</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="99">
         <v>0</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="100">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="63"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="107" t="str">
+      <c r="B11" s="98" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_FUEL_H2G</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="99">
         <v>0</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="99">
         <v>0</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="100">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="63"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="94" t="str">
         <f>SEC_Comm!C14</f>
         <v>IND_OTH_H2G</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="95">
         <v>0</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="95">
         <v>0</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="96">
         <v>5.3350000000000003E-3</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="107" t="str">
+      <c r="B13" s="98" t="str">
         <f>SEC_Comm!C15</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="99">
         <v>0</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="99">
         <v>0</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="100">
         <f>1200*10^-6</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="63"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="103" t="str">
+      <c r="B14" s="94" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_CAR_H2G</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="95">
         <v>0</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="95">
         <v>0</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="96">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="107" t="str">
+      <c r="B15" s="98" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="99">
         <v>0</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="99">
         <v>0</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="100">
         <v>1.25E-3</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="63"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="103" t="str">
+      <c r="B16" s="94" t="str">
         <f>SEC_Comm!C18</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="95">
         <v>0</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="95">
         <v>0</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="107">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="94" t="str">
+      <c r="B17" s="85" t="str">
         <f>SEC_Comm!C19</f>
         <v>TRA_FRK_H2G</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="99">
         <v>0</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="99">
         <v>0</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="100">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="111" t="str">
+      <c r="B18" s="102" t="str">
         <f>SEC_Comm!C20</f>
         <v>TRA_SHIP_INL_H2G</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="95">
         <v>0</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="95">
         <v>0</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="96">
         <f>245.2*10^-6</f>
         <v>2.452E-4</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="94" t="str">
+      <c r="B19" s="85" t="str">
         <f>SEC_Comm!C21</f>
         <v>TRA_SHIP_SEA_H2G</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="99">
         <v>0</v>
       </c>
-      <c r="D19" s="108">
+      <c r="D19" s="99">
         <v>0</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="100">
         <f>4300*10^-6</f>
         <v>4.3E-3</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="103" t="str">
+      <c r="B20" s="94" t="str">
         <f>SEC_Comm!C22</f>
         <v>IND_HT_H2G</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="95">
         <v>0</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="95">
         <v>0</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="96">
         <v>0.01</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:22" ht="13" thickBot="1">
-      <c r="B21" s="112" t="str">
+      <c r="B21" s="103" t="str">
         <f>SEC_Comm!C23</f>
         <v>PP_H2G</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="104">
         <v>0</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="104">
         <v>0</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="105">
         <v>0</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="67"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="34"/>
@@ -8614,22 +8608,22 @@
         <f>SEC_Comm!C26</f>
         <v>DMD_ELC_TOT</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="89">
         <v>608.24159999999995</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="89">
         <v>608.24159999999995</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="89">
         <v>608.24159999999995</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="89">
         <v>608.24159999999995</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="89">
         <v>608.24159999999995</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="89">
         <v>608.24159999999995</v>
       </c>
     </row>
@@ -8731,29 +8725,29 @@
       <c r="B7" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="2:9" ht="36.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="13" t="e">
@@ -8792,8 +8786,8 @@
     <row r="11" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="12" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="13" spans="2:9" ht="13">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="26"/>
@@ -8823,6 +8817,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -9065,15 +9068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9086,6 +9080,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C65D6A93-DF5A-4B84-BED4-FB328DA2DBCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9100,14 +9102,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_ModelPL_DEMAND.xlsx
+++ b/VT_ModelPL_DEMAND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A22F5-2896-48D4-8BBC-D3746CE84327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBF820-559F-40C5-ADE2-2F456A364143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -8187,8 +8187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8826,6 +8826,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -9068,17 +9079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
@@ -9088,6 +9088,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C65D6A93-DF5A-4B84-BED4-FB328DA2DBCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9104,21 +9121,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_DEMAND.xlsx
+++ b/VT_ModelPL_DEMAND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBF820-559F-40C5-ADE2-2F456A364143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED6190E-7E37-4125-943A-1CB0BF9C2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="499" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="499" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="179">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1146,6 +1146,18 @@
   </si>
   <si>
     <t>Roczna wartość popytu</t>
+  </si>
+  <si>
+    <t>SHARE~LO~2023</t>
+  </si>
+  <si>
+    <t>SHARE~LO~2025</t>
+  </si>
+  <si>
+    <t>SHARE~LO~2030</t>
+  </si>
+  <si>
+    <t>Other industrial demand</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1193,7 @@
     <numFmt numFmtId="187" formatCode="0.000000"/>
     <numFmt numFmtId="188" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="117">
+  <fonts count="118">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1940,6 +1952,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -4123,7 +4141,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="116" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4285,6 +4303,8 @@
     <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="185" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1309">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5991,8 +6011,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I26"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6481,7 +6501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -7073,10 +7093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:I69"/>
+  <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7090,19 +7110,19 @@
     <col min="7" max="9" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.5">
+    <row r="2" spans="2:12" ht="17.5">
       <c r="B2" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="13">
+    <row r="3" spans="2:12" ht="13">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1">
+    <row r="4" spans="2:12" ht="15.75" customHeight="1">
       <c r="E4" s="6" t="s">
         <v>147</v>
       </c>
@@ -7111,7 +7131,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+    <row r="5" spans="2:12" ht="15.75" customHeight="1">
       <c r="B5" s="16" t="s">
         <v>71</v>
       </c>
@@ -7136,8 +7156,17 @@
       <c r="I5" s="16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="31.9" customHeight="1">
+      <c r="J5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="31.9" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>155</v>
       </c>
@@ -7161,7 +7190,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="31.9" customHeight="1" thickBot="1">
+    <row r="7" spans="2:12" ht="31.9" customHeight="1" thickBot="1">
       <c r="B7" s="33" t="s">
         <v>161</v>
       </c>
@@ -7185,7 +7214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1">
       <c r="B8" s="76" t="str">
         <f>SEC_Processes!D8</f>
         <v>DMD_IND_FERT_H2G</v>
@@ -7207,7 +7236,7 @@
       </c>
       <c r="I8" s="78"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:12" ht="15.75" customHeight="1">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="str">
@@ -7222,7 +7251,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+    <row r="10" spans="2:12" ht="15.75" customHeight="1">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80" t="str">
@@ -7237,7 +7266,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+    <row r="11" spans="2:12" ht="15.75" customHeight="1">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -7250,7 +7279,7 @@
       <c r="H11" s="55"/>
       <c r="I11" s="81"/>
     </row>
-    <row r="12" spans="2:9" ht="15.65" customHeight="1">
+    <row r="12" spans="2:12" ht="15.65" customHeight="1">
       <c r="B12" s="83" t="str">
         <f>SEC_Processes!D9</f>
         <v>DMD_IND_REF_H2G</v>
@@ -7271,7 +7300,7 @@
       </c>
       <c r="I12" s="84"/>
     </row>
-    <row r="13" spans="2:9" ht="15.65" customHeight="1">
+    <row r="13" spans="2:12" ht="15.65" customHeight="1">
       <c r="B13" s="83"/>
       <c r="C13" s="39"/>
       <c r="D13" s="34" t="str">
@@ -7286,7 +7315,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.65" customHeight="1">
+    <row r="14" spans="2:12" ht="15.65" customHeight="1">
       <c r="B14" s="83"/>
       <c r="C14" s="39"/>
       <c r="D14" s="34" t="str">
@@ -7301,7 +7330,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.65" customHeight="1">
+    <row r="15" spans="2:12" ht="15.65" customHeight="1">
       <c r="B15" s="83"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -7314,7 +7343,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="84"/>
     </row>
-    <row r="16" spans="2:9" ht="15.65" customHeight="1">
+    <row r="16" spans="2:12" ht="15.65" customHeight="1">
       <c r="B16" s="85" t="str">
         <f>SEC_Processes!D11</f>
         <v>DMD_IND_FUEL_H2G</v>
@@ -7449,7 +7478,9 @@
         <f>SEC_Processes!D12</f>
         <v>DMD_IND_OTH</v>
       </c>
-      <c r="C24" s="80"/>
+      <c r="C24" s="80" t="s">
+        <v>178</v>
+      </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
@@ -7981,7 +8012,7 @@
       <c r="H56" s="55">
         <v>1</v>
       </c>
-      <c r="I56" s="81"/>
+      <c r="I56" s="113"/>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="79"/>
@@ -7994,9 +8025,7 @@
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="81">
-        <v>0.19999999999999996</v>
-      </c>
+      <c r="I57" s="114"/>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="79"/>
@@ -8009,9 +8038,7 @@
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="81">
-        <v>0.8</v>
-      </c>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="79"/>
@@ -8024,7 +8051,7 @@
       <c r="F59" s="55"/>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="113"/>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="83" t="str">
@@ -8178,6 +8205,7 @@
       <c r="I69" s="41"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="117" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -8187,8 +8215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8837,8 +8865,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -8894,7 +8922,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -8953,7 +8981,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -8972,7 +9000,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -8989,8 +9017,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -9105,7 +9133,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C65D6A93-DF5A-4B84-BED4-FB328DA2DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774F1909-1F9B-47CF-8F6A-492A3F019715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/VT_ModelPL_DEMAND.xlsx
+++ b/VT_ModelPL_DEMAND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED6190E-7E37-4125-943A-1CB0BF9C2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7BCAB-E70D-4447-B274-DFE94EB3EA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="499" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="499" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="181">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1158,6 +1158,12 @@
   </si>
   <si>
     <t>Other industrial demand</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -4141,7 +4147,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="116" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4236,7 +4242,6 @@
     <xf numFmtId="184" fontId="0" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="44" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="43" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="44" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="184" fontId="44" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -4247,7 +4252,6 @@
     <xf numFmtId="184" fontId="0" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="44" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4288,6 +4292,8 @@
     <xf numFmtId="188" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="186" fontId="0" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4303,8 +4309,10 @@
     <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="44" fillId="43" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1309">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6011,8 +6019,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6447,7 +6455,9 @@
       <c r="G24" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="53" t="s">
+        <v>179</v>
+      </c>
       <c r="I24" s="56"/>
     </row>
     <row r="25" spans="2:9">
@@ -6467,7 +6477,9 @@
       <c r="G25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="50" t="s">
+        <v>179</v>
+      </c>
       <c r="I25" s="51"/>
     </row>
     <row r="26" spans="2:9" ht="13" thickBot="1">
@@ -6484,8 +6496,10 @@
         <v>61</v>
       </c>
       <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="60"/>
     </row>
   </sheetData>
@@ -6501,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6662,13 +6676,15 @@
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="113" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="53" t="s">
@@ -6677,21 +6693,23 @@
       <c r="E9" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -6700,15 +6718,17 @@
       <c r="E10" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="52" t="s">
@@ -6731,13 +6751,15 @@
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="50" t="s">
@@ -6754,13 +6776,15 @@
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="53" t="s">
@@ -6769,21 +6793,23 @@
       <c r="E13" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="56"/>
+      <c r="J13" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="50" t="s">
@@ -6800,13 +6826,15 @@
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -6815,21 +6843,23 @@
       <c r="E15" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="56"/>
+      <c r="J15" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -6846,7 +6876,9 @@
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="52" t="s">
@@ -6861,15 +6893,17 @@
       <c r="E17" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
+      <c r="J17" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="49" t="s">
@@ -6884,15 +6918,17 @@
       <c r="E18" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="69" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="52" t="s">
@@ -6907,21 +6943,23 @@
       <c r="E19" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="66" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="J19" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -6938,13 +6976,15 @@
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="115" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -6961,30 +7001,36 @@
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
-      <c r="J21" s="56"/>
+      <c r="J21" s="114" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="13" thickBot="1">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="75"/>
+      <c r="H22" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="72"/>
+      <c r="J22" s="116" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="108" t="s">
@@ -7095,8 +7141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7215,72 +7261,72 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B8" s="76" t="str">
+      <c r="B8" s="74" t="str">
         <f>SEC_Processes!D8</f>
         <v>DMD_IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="77" t="str">
+      <c r="C8" s="75" t="str">
         <f>SEC_Processes!E8</f>
         <v>H2 demand for fertilizers production</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75">
         <v>1</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="75">
         <v>1</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="75">
         <v>1</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80" t="str">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
-      <c r="I9" s="81">
+      <c r="I9" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80" t="str">
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="82"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
-      <c r="I10" s="81">
+      <c r="I10" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80" t="str">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78" t="str">
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="81"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="2:12" ht="15.65" customHeight="1">
-      <c r="B12" s="83" t="str">
+      <c r="B12" s="81" t="str">
         <f>SEC_Processes!D9</f>
         <v>DMD_IND_REF_H2G</v>
       </c>
@@ -7298,10 +7344,10 @@
       <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="84"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="2:12" ht="15.65" customHeight="1">
-      <c r="B13" s="83"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="39"/>
       <c r="D13" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7311,12 +7357,12 @@
       <c r="F13" s="39"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="84">
+      <c r="I13" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.65" customHeight="1">
-      <c r="B14" s="83"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="39"/>
       <c r="D14" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7326,12 +7372,12 @@
       <c r="F14" s="39"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="84">
+      <c r="I14" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.65" customHeight="1">
-      <c r="B15" s="83"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="str">
@@ -7341,10 +7387,10 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="84"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="2:12" ht="15.65" customHeight="1">
-      <c r="B16" s="85" t="str">
+      <c r="B16" s="83" t="str">
         <f>SEC_Processes!D11</f>
         <v>DMD_IND_FUEL_H2G</v>
       </c>
@@ -7354,7 +7400,7 @@
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="80">
+      <c r="F16" s="78">
         <v>1</v>
       </c>
       <c r="G16" s="55">
@@ -7363,40 +7409,40 @@
       <c r="H16" s="55">
         <v>1</v>
       </c>
-      <c r="I16" s="81"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B17" s="85"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
       </c>
       <c r="E17" s="55"/>
-      <c r="F17" s="80"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="81">
+      <c r="I17" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B18" s="85"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
       </c>
       <c r="E18" s="55"/>
-      <c r="F18" s="80"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="81">
+      <c r="I18" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.65" customHeight="1">
-      <c r="B19" s="85"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55" t="str">
@@ -7409,7 +7455,7 @@
       <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="83" t="str">
+      <c r="B20" s="81" t="str">
         <f>SEC_Processes!D10</f>
         <v>DMD_IND_STEEL_H2G</v>
       </c>
@@ -7428,10 +7474,10 @@
       <c r="H20" s="34">
         <v>1</v>
       </c>
-      <c r="I20" s="84"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="83"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="39"/>
       <c r="D21" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7441,12 +7487,12 @@
       <c r="F21" s="39"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="84">
+      <c r="I21" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="83"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="39"/>
       <c r="D22" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7456,12 +7502,12 @@
       <c r="F22" s="39"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="84">
+      <c r="I22" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="83"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="str">
@@ -7471,14 +7517,14 @@
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="84"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="79" t="str">
+      <c r="B24" s="77" t="str">
         <f>SEC_Processes!D12</f>
         <v>DMD_IND_OTH</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="78" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="55"/>
@@ -7492,11 +7538,11 @@
       <c r="H24" s="55">
         <v>1</v>
       </c>
-      <c r="I24" s="81"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
@@ -7505,13 +7551,13 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
-      <c r="I25" s="81">
+      <c r="I25" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
@@ -7520,13 +7566,13 @@
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
-      <c r="I26" s="81">
+      <c r="I26" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55" t="str">
         <f>SEC_Comm!C14</f>
@@ -7535,10 +7581,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
-      <c r="I27" s="81"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="83" t="str">
+      <c r="B28" s="81" t="str">
         <f>SEC_Processes!D13</f>
         <v>DMD_TRA_AVI_H2G</v>
       </c>
@@ -7557,10 +7603,10 @@
       <c r="H28" s="34">
         <v>1</v>
       </c>
-      <c r="I28" s="84"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="83"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="39"/>
       <c r="D29" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7570,12 +7616,12 @@
       <c r="F29" s="39"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="84">
+      <c r="I29" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="83"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="39"/>
       <c r="D30" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7585,12 +7631,12 @@
       <c r="F30" s="39"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="84">
+      <c r="I30" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="83"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="str">
@@ -7600,14 +7646,14 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="84"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="79" t="str">
+      <c r="B32" s="77" t="str">
         <f>SEC_Processes!D14</f>
         <v>DMD_TRA_CARS_H2G</v>
       </c>
-      <c r="C32" s="80" t="str">
+      <c r="C32" s="78" t="str">
         <f>SEC_Processes!E14</f>
         <v>H2 demand for cars</v>
       </c>
@@ -7623,11 +7669,11 @@
       <c r="H32" s="55">
         <v>1</v>
       </c>
-      <c r="I32" s="81"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
@@ -7636,13 +7682,13 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="55"/>
-      <c r="I33" s="81">
+      <c r="I33" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
@@ -7651,13 +7697,13 @@
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
-      <c r="I34" s="81">
+      <c r="I34" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="str">
         <f>SEC_Comm!C16</f>
@@ -7666,10 +7712,10 @@
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
-      <c r="I35" s="81"/>
+      <c r="I35" s="79"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="83" t="str">
+      <c r="B36" s="81" t="str">
         <f>SEC_Processes!D15</f>
         <v>DMD_TRA_BUS_H2G</v>
       </c>
@@ -7688,10 +7734,10 @@
       <c r="H36" s="34">
         <v>1</v>
       </c>
-      <c r="I36" s="84"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="83"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="39"/>
       <c r="D37" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7701,12 +7747,12 @@
       <c r="F37" s="39"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="84">
+      <c r="I37" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="83"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="39"/>
       <c r="D38" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7716,12 +7762,12 @@
       <c r="F38" s="39"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="84">
+      <c r="I38" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="83"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39" t="str">
@@ -7731,14 +7777,14 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="84"/>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="79" t="str">
+      <c r="B40" s="77" t="str">
         <f>SEC_Processes!D16</f>
         <v>DMD_TRA_RAIL_H2G</v>
       </c>
-      <c r="C40" s="80" t="str">
+      <c r="C40" s="78" t="str">
         <f>SEC_Processes!E16</f>
         <v>H2 demand for rail</v>
       </c>
@@ -7754,11 +7800,11 @@
       <c r="H40" s="55">
         <v>1</v>
       </c>
-      <c r="I40" s="81"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
@@ -7767,13 +7813,13 @@
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="81">
+      <c r="I41" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
@@ -7782,13 +7828,13 @@
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="81">
+      <c r="I42" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="str">
         <f>SEC_Comm!C17</f>
@@ -7797,10 +7843,10 @@
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="83" t="str">
+      <c r="B44" s="81" t="str">
         <f>SEC_Processes!D17</f>
         <v>DMD_TRA_FRK_H2G</v>
       </c>
@@ -7816,10 +7862,10 @@
       <c r="H44" s="34">
         <v>1</v>
       </c>
-      <c r="I44" s="84"/>
+      <c r="I44" s="82"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="83"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="39"/>
       <c r="D45" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7829,12 +7875,12 @@
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="84">
+      <c r="I45" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="83"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="39"/>
       <c r="D46" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7844,12 +7890,12 @@
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="84">
+      <c r="I46" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="83"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="39"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="str">
@@ -7859,14 +7905,14 @@
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
-      <c r="I47" s="84"/>
+      <c r="I47" s="82"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="79" t="str">
+      <c r="B48" s="77" t="str">
         <f>SEC_Processes!D20</f>
         <v>DMD_IND_HT_H2G</v>
       </c>
-      <c r="C48" s="80" t="str">
+      <c r="C48" s="78" t="str">
         <f>SEC_Processes!E20</f>
         <v>H2 demand for industrial heat</v>
       </c>
@@ -7882,11 +7928,11 @@
       <c r="H48" s="55">
         <v>1</v>
       </c>
-      <c r="I48" s="81"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
@@ -7895,13 +7941,13 @@
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="81">
+      <c r="I49" s="79">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
@@ -7910,13 +7956,13 @@
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="81">
+      <c r="I50" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="str">
         <f>SEC_Comm!C22</f>
@@ -7925,10 +7971,10 @@
       <c r="F51" s="55"/>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="81"/>
+      <c r="I51" s="79"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="83" t="str">
+      <c r="B52" s="81" t="str">
         <f>SEC_Processes!D21</f>
         <v>DMD_ELE_PP_H2G</v>
       </c>
@@ -7947,10 +7993,10 @@
       <c r="H52" s="34">
         <v>1</v>
       </c>
-      <c r="I52" s="84"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="83"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="39"/>
       <c r="D53" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -7960,12 +8006,12 @@
       <c r="F53" s="39"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
-      <c r="I53" s="84">
+      <c r="I53" s="82">
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="83"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="39"/>
       <c r="D54" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -7975,12 +8021,12 @@
       <c r="F54" s="39"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="84">
+      <c r="I54" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="83"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="str">
@@ -7990,14 +8036,14 @@
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="84"/>
+      <c r="I55" s="82"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="79" t="str">
+      <c r="B56" s="77" t="str">
         <f>SEC_Processes!D22</f>
         <v>DMD_OTHER_ELC</v>
       </c>
-      <c r="C56" s="80" t="str">
+      <c r="C56" s="78" t="str">
         <f>SEC_Processes!E22</f>
         <v>Whole demand of electricity system in Poland</v>
       </c>
@@ -8012,11 +8058,11 @@
       <c r="H56" s="55">
         <v>1</v>
       </c>
-      <c r="I56" s="113"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="55" t="str">
         <f>SEC_Comm!C24</f>
         <v>ELC_GRID</v>
@@ -8025,11 +8071,11 @@
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="114"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="55" t="str">
         <f>SEC_Comm!C25</f>
         <v>ELC_GRID_RES</v>
@@ -8038,11 +8084,11 @@
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="114"/>
+      <c r="I58" s="107"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="str">
         <f>SEC_Comm!C26</f>
@@ -8051,10 +8097,10 @@
       <c r="F59" s="55"/>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="113"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="83" t="str">
+      <c r="B60" s="81" t="str">
         <f>SEC_Processes!D18</f>
         <v>DMD_TRA_SHIP_INL_H2G</v>
       </c>
@@ -8074,10 +8120,10 @@
       <c r="H60" s="34">
         <v>1</v>
       </c>
-      <c r="I60" s="84"/>
+      <c r="I60" s="82"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="83"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="39"/>
       <c r="D61" s="34" t="str">
         <f>SEC_Comm!C8</f>
@@ -8087,12 +8133,12 @@
       <c r="F61" s="39"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="84">
+      <c r="I61" s="82">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="83"/>
+      <c r="B62" s="81"/>
       <c r="C62" s="39"/>
       <c r="D62" s="34" t="str">
         <f>SEC_Comm!C9</f>
@@ -8102,12 +8148,12 @@
       <c r="F62" s="39"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
-      <c r="I62" s="84">
+      <c r="I62" s="82">
         <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="83"/>
+      <c r="B63" s="81"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="str">
@@ -8117,14 +8163,14 @@
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
-      <c r="I63" s="84"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="79" t="str">
+      <c r="B64" s="77" t="str">
         <f>SEC_Processes!D19</f>
         <v>DMD_TRA_SHIP_SEA_H2G</v>
       </c>
-      <c r="C64" s="80" t="str">
+      <c r="C64" s="78" t="str">
         <f>SEC_Processes!E19</f>
         <v>H2 demand for ships on seawaters</v>
       </c>
@@ -8139,11 +8185,11 @@
       <c r="H64" s="55">
         <v>1</v>
       </c>
-      <c r="I64" s="81"/>
+      <c r="I64" s="79"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="55" t="str">
         <f>SEC_Comm!C8</f>
         <v>H2G_GRID</v>
@@ -8152,13 +8198,13 @@
       <c r="F65" s="55"/>
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
-      <c r="I65" s="81">
+      <c r="I65" s="79">
         <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="55" t="str">
         <f>SEC_Comm!C9</f>
         <v>H2G_TRUCK</v>
@@ -8167,13 +8213,13 @@
       <c r="F66" s="55"/>
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
-      <c r="I66" s="81">
+      <c r="I66" s="79">
         <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="13" thickBot="1">
-      <c r="B67" s="86"/>
-      <c r="C67" s="87"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59" t="str">
         <f>SEC_Comm!C21</f>
@@ -8182,7 +8228,7 @@
       <c r="F67" s="59"/>
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
-      <c r="I67" s="88"/>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="40"/>
@@ -8215,8 +8261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8295,185 +8341,185 @@
         <f>SEC_Comm!C10</f>
         <v>IND_FERT_H2G</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="88">
         <v>0</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="88">
         <v>0</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <v>0.136103</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="94" t="str">
+      <c r="B9" s="92" t="str">
         <f>SEC_Comm!C11</f>
         <v>IND_REF_H2G</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="93">
         <v>0</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="93">
         <v>0</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="94">
         <v>1.7971000000000001E-2</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="51"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="98" t="str">
+      <c r="B10" s="96" t="str">
         <f>SEC_Comm!C13</f>
         <v>IND_STEEL_H2G</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="97">
         <v>0</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="97">
         <v>0</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="98">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="56"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="98" t="str">
+      <c r="B11" s="96" t="str">
         <f>SEC_Comm!C12</f>
         <v>IND_FUEL_H2G</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="97">
         <v>0</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="97">
         <v>0</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="98">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="56"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="94" t="str">
+      <c r="B12" s="92" t="str">
         <f>SEC_Comm!C14</f>
         <v>IND_OTH_H2G</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="93">
         <v>0</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="93">
         <v>0</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="94">
         <v>5.3350000000000003E-3</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="34"/>
       <c r="I12" s="51"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="98" t="str">
+      <c r="B13" s="96" t="str">
         <f>SEC_Comm!C15</f>
         <v>IND_TRA_AVI_SAF</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="97">
         <v>0</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="97">
         <v>0</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="98">
         <f>1200*10^-6</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="94" t="str">
+      <c r="B14" s="92" t="str">
         <f>SEC_Comm!C16</f>
         <v>TRA_CAR_H2G</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="93">
         <v>0</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="93">
         <v>0</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="94">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="34"/>
       <c r="I14" s="51"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="98" t="str">
+      <c r="B15" s="96" t="str">
         <f>SEC_Comm!C17</f>
         <v>TRA_RAIL_H2G</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="97">
         <v>0</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="97">
         <v>0</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="98">
         <v>1.25E-3</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="94" t="str">
+      <c r="B16" s="92" t="str">
         <f>SEC_Comm!C18</f>
         <v>TRA_BUS_H2G</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="93">
         <v>0</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="93">
         <v>0</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="105">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="34"/>
       <c r="I16" s="51"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="85" t="str">
+      <c r="B17" s="83" t="str">
         <f>SEC_Comm!C19</f>
         <v>TRA_FRK_H2G</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="97">
         <v>0</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="97">
         <v>0</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="98">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="F17" s="55"/>
@@ -8482,17 +8528,17 @@
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="102" t="str">
+      <c r="B18" s="100" t="str">
         <f>SEC_Comm!C20</f>
         <v>TRA_SHIP_INL_H2G</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="93">
         <v>0</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="93">
         <v>0</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="94">
         <f>245.2*10^-6</f>
         <v>2.452E-4</v>
       </c>
@@ -8502,17 +8548,17 @@
       <c r="I18" s="51"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="85" t="str">
+      <c r="B19" s="83" t="str">
         <f>SEC_Comm!C21</f>
         <v>TRA_SHIP_SEA_H2G</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="97">
         <v>0</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="97">
         <v>0</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="98">
         <f>4300*10^-6</f>
         <v>4.3E-3</v>
       </c>
@@ -8522,41 +8568,41 @@
       <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="94" t="str">
+      <c r="B20" s="92" t="str">
         <f>SEC_Comm!C22</f>
         <v>IND_HT_H2G</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="93">
         <v>0</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="93">
         <v>0</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="94">
         <v>0.01</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="34"/>
       <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:22" ht="13" thickBot="1">
-      <c r="B21" s="103" t="str">
+      <c r="B21" s="101" t="str">
         <f>SEC_Comm!C23</f>
         <v>PP_H2G</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="102">
         <v>0</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <v>0</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="103">
         <v>0</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:22">
@@ -8636,22 +8682,22 @@
         <f>SEC_Comm!C26</f>
         <v>DMD_ELC_TOT</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="87">
         <v>608.24159999999995</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="87">
         <v>608.24159999999995</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="87">
         <v>608.24159999999995</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="87">
         <v>608.24159999999995</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="87">
         <v>608.24159999999995</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="87">
         <v>608.24159999999995</v>
       </c>
     </row>
@@ -8854,17 +8900,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -9107,6 +9142,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
@@ -9116,23 +9162,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774F1909-1F9B-47CF-8F6A-492A3F019715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9149,4 +9178,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ModelPL_DEMAND.xlsx
+++ b/VT_ModelPL_DEMAND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\H2-model-V6_final\H2-model-V6_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7BCAB-E70D-4447-B274-DFE94EB3EA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A4292-AFB5-42C5-BAF7-8F0B84C0D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="499" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="499" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -4147,7 +4147,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="116" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4294,25 +4294,26 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="0" fillId="44" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="44" fillId="43" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="0" xfId="791" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1309">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6676,7 +6677,7 @@
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="108" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6701,7 +6702,7 @@
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="50"/>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6751,7 +6752,7 @@
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6776,7 +6777,7 @@
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
-      <c r="J12" s="115" t="s">
+      <c r="J12" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6801,7 +6802,7 @@
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6826,7 +6827,7 @@
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6851,7 +6852,7 @@
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6901,7 +6902,7 @@
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6926,7 +6927,7 @@
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6951,7 +6952,7 @@
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6976,7 +6977,7 @@
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="110" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7001,7 +7002,7 @@
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7028,16 +7029,16 @@
         <v>62</v>
       </c>
       <c r="I22" s="72"/>
-      <c r="J22" s="116" t="s">
+      <c r="J22" s="111" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="17" t="s">
@@ -7141,8 +7142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -8071,7 +8072,10 @@
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="107"/>
+      <c r="I57" s="117">
+        <f>1-I58</f>
+        <v>0.67999999999999994</v>
+      </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="77"/>
@@ -8084,7 +8088,9 @@
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="107"/>
+      <c r="I58" s="107">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="77"/>
@@ -8261,7 +8267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F913FC6-85F0-4DE0-A06C-FA6D59278C8D}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -8314,27 +8320,27 @@
       <c r="B6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="2:9" ht="13" thickBot="1">
       <c r="B7" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="36" t="str">
@@ -8799,29 +8805,29 @@
       <c r="B7" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="2:9" ht="36.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="13" t="e">
@@ -8860,8 +8866,8 @@
     <row r="11" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="12" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="13" spans="2:9" ht="13">
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="26"/>
@@ -8891,12 +8897,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9143,20 +9151,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9181,18 +9196,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>